--- a/Excel/MonsterBabelConfig.xlsx
+++ b/Excel/MonsterBabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,15 +30,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>SkillIdList</t>
+    <t>StartLevel</t>
+  </si>
+  <si>
+    <t>EndLevel</t>
+  </si>
+  <si>
+    <t>SkillIdList1</t>
+  </si>
+  <si>
+    <t>SkillIdList2</t>
+  </si>
+  <si>
+    <t>SkillIdList3</t>
   </si>
   <si>
     <t>Id</t>
@@ -48,6 +57,27 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>1001,1002</t>
+  </si>
+  <si>
+    <t>1001,1002,1005</t>
+  </si>
+  <si>
+    <t>1001,1002,1005,1006</t>
+  </si>
+  <si>
+    <t>2001,2002</t>
+  </si>
+  <si>
+    <t>2001,2002,2007</t>
+  </si>
+  <si>
+    <t>3001,1002</t>
+  </si>
+  <si>
+    <t>1002,2002</t>
   </si>
 </sst>
 </file>
@@ -60,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,11 +108,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -555,133 +580,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,8 +717,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1013,35 +1040,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="26.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1053,12 +1083,21 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1066,62 +1105,124 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:5">
+    <row r="6" customHeight="1" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
-        <v>1001</v>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:5">
+    <row r="7" customHeight="1" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <f>E6+10</f>
-        <v>1011</v>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D9" si="0">E6+1</f>
+        <v>1001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:5">
+    <row r="8" customHeight="1" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
-        <f>E7+10</f>
-        <v>1021</v>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="4:5">
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+    <row r="9" customHeight="1" spans="3:8">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:H3 E4:H4 E5:H5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBabelConfig.xlsx
+++ b/Excel/MonsterBabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,24 +30,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>StartLevel</t>
   </si>
   <si>
     <t>EndLevel</t>
   </si>
   <si>
-    <t>SkillIdList1</t>
-  </si>
-  <si>
-    <t>SkillIdList2</t>
-  </si>
-  <si>
-    <t>SkillIdList3</t>
+    <t>SkillIdList</t>
+  </si>
+  <si>
+    <t>AttrRate</t>
   </si>
   <si>
     <t>Id</t>
@@ -56,28 +59,37 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int[]</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>通天侍卫</t>
+  </si>
+  <si>
     <t>1001,1002</t>
   </si>
   <si>
+    <t>通天祭司</t>
+  </si>
+  <si>
     <t>1001,1002,1005</t>
   </si>
   <si>
-    <t>1001,1002,1005,1006</t>
+    <t>通天主教</t>
+  </si>
+  <si>
+    <t>2002,2003,2005,2007,2008,2010</t>
   </si>
   <si>
     <t>2001,2002</t>
   </si>
   <si>
-    <t>2001,2002,2007</t>
-  </si>
-  <si>
-    <t>3001,1002</t>
-  </si>
-  <si>
-    <t>1002,2002</t>
+    <t>2001,2002,2005</t>
   </si>
 </sst>
 </file>
@@ -720,7 +732,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,38 +1051,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="26.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="26.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1092,12 +1103,16 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1114,18 +1129,22 @@
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -1134,95 +1153,313 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:8">
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D9" si="0">E6+1</f>
-        <v>1001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F17" si="0">G6+1</f>
+        <v>1001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:10">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G12" s="1">
         <v>5000</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:10">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:10">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:10">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>5001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G15" s="1">
         <v>10000</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:10">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:H3 E4:H4 E5:H5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:J5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterBabelConfig.xlsx
+++ b/Excel/MonsterBabelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -77,7 +77,7 @@
     <t>通天祭司</t>
   </si>
   <si>
-    <t>1001,1002,1005</t>
+    <t>1001,1002,3003</t>
   </si>
   <si>
     <t>通天主教</t>
@@ -89,7 +89,13 @@
     <t>2001,2002</t>
   </si>
   <si>
-    <t>2001,2002,2005</t>
+    <t>2001,2002,3003</t>
+  </si>
+  <si>
+    <t>2002,2003,2005,2007,2008,2010,1004</t>
+  </si>
+  <si>
+    <t>2002,2003,2005,2007,2008,2010,3008</t>
   </si>
 </sst>
 </file>
@@ -1051,12 +1057,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1243,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F17" si="0">G6+1</f>
+        <f t="shared" ref="F9:F20" si="0">G6+1</f>
         <v>1001</v>
       </c>
       <c r="G9" s="1">
@@ -1300,7 +1306,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
@@ -1375,7 +1381,7 @@
         <v>5000</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4">
         <v>3</v>
@@ -1450,12 +1456,84 @@
         <v>10000</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
       </c>
       <c r="J17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:9">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>10001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:9">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>10001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>10001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/MonsterBabelConfig.xlsx
+++ b/Excel/MonsterBabelConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -77,25 +77,16 @@
     <t>通天祭司</t>
   </si>
   <si>
-    <t>1001,1002,3003</t>
+    <t>1001,1002,2002,3003</t>
   </si>
   <si>
     <t>通天主教</t>
   </si>
   <si>
-    <t>2002,2003,2005,2007,2008,2010</t>
+    <t>2002,2003,2005,2007,2010,3008,1004</t>
   </si>
   <si>
     <t>2001,2002</t>
-  </si>
-  <si>
-    <t>2001,2002,3003</t>
-  </si>
-  <si>
-    <t>2002,2003,2005,2007,2008,2010,1004</t>
-  </si>
-  <si>
-    <t>2002,2003,2005,2007,2008,2010,3008</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1053,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1281,7 +1272,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -1306,7 +1297,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
@@ -1381,7 +1372,7 @@
         <v>5000</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4">
         <v>3</v>
@@ -1431,7 +1422,7 @@
         <v>10000</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -1456,7 +1447,7 @@
         <v>10000</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
@@ -1505,7 +1496,7 @@
         <v>20000</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
@@ -1529,7 +1520,7 @@
         <v>20000</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I20" s="4">
         <v>3</v>

--- a/Excel/MonsterBabelConfig.xlsx
+++ b/Excel/MonsterBabelConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>2001,2002</t>
+  </si>
+  <si>
+    <t>1001,1002,2002,3003,1005</t>
+  </si>
+  <si>
+    <t>2002,2003,2005,2007,2010,3008,1004,1005</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1061,7 +1067,8 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="7" width="9.875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="26.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="26.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1422,7 +1429,7 @@
         <v>10000</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -1447,7 +1454,7 @@
         <v>10000</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
@@ -1496,7 +1503,7 @@
         <v>20000</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
@@ -1520,7 +1527,7 @@
         <v>20000</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4">
         <v>3</v>
